--- a/pred_ohlcv/54_21/2019-10-19 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 XLM ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>5805125.714500001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>6030125.714500001</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>6030125.714500001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>6030125.714500001</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>8823934.199900001</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>8823934.199900001</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>8823934.199900001</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>10223934.1999</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>10223934.1999</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>8223934.199900001</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>8223934.199900001</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>8223934.199900001</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>7423408.745600001</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>7423408.745600001</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>7623408.745600001</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>7422983.8144</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>7422983.8144</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-5038321.656883101</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-5038060.003183101</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-5047223.032483101</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-5047223.032483101</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-5048393.681583101</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-5047708.684283101</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-5047708.684283101</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-5047708.684283101</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-5039545.724283101</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-5039545.724283101</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-5086431.597774411</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-5086431.597774411</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-5086431.597774411</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-5111368.774874411</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-5111368.774874411</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-5114890.274874411</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-5114890.274874411</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-5106913.04487441</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-5124509.35276073</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-4977283.04796073</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-4977283.04796073</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-4920906.483560731</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-4928906.483560731</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-4893435.021760731</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-4753666.814560731</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-4750963.814560731</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-4750963.814560731</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-4750963.814560731</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-4750963.814560731</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-4750963.814560731</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-4740763.043860731</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-4744775.953360731</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-5180781.85145835</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-19 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 XLM ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>5805125.714500001</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>6030125.714500001</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>6030125.714500001</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>6030125.714500001</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>5712904.9743</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>5712904.9743</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>6260778.7234</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>7520778.7234</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>7518471.807600001</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>8847968.710900001</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>10177968.7109</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>10177968.7109</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>10146816.3086</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>10153973.83</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>7113934.199900001</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>7113934.199900001</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>7113934.199900001</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>8823934.199900001</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>8823934.199900001</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>8823934.199900001</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>8823934.199900001</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>10223934.1999</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>10223934.1999</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>8223934.199900001</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>8223934.199900001</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>8223934.199900001</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>7423408.745600001</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>7423408.745600001</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>7623408.745600001</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>7422983.8144</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>7422983.8144</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>7422983.8144</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>7418286.413000001</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-5038060.003183101</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-5047223.032483101</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-5047223.032483101</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-5047223.032483101</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-5048393.681583101</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-5047708.684283101</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-5047708.684283101</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-5047708.684283101</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-5039545.724283101</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-5039545.724283101</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-5039545.724283101</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-5032545.275483101</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-5033215.7784831</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-5033215.7784831</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-5033215.7784831</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-5033215.7784831</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-5033215.7784831</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-5033215.7784831</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-5033115.7784831</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-5086375.8321831</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-5086375.8321831</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-5086375.8321831</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-5093791.1001831</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-5093657.23137454</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-5093701.938974541</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-5093701.938974541</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-5086431.597774411</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-5086431.597774411</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-5086431.597774411</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-5091301.597774411</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-5111368.774874411</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-5111368.774874411</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-5114890.274874411</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-5114890.274874411</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-5114890.274874411</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-5114890.274874411</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-5114890.274874411</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-5114890.274874411</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-5107513.04487441</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-5106913.04487441</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-4977283.04796073</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-4753666.814560731</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-4750963.814560731</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-4750963.814560731</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-4750963.814560731</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-4750963.814560731</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-4750963.814560731</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-4740763.043860731</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-4744775.953360731</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
